--- a/data/raw/INFANL4-2020-2021 EXAM second chance.xlsx
+++ b/data/raw/INFANL4-2020-2021 EXAM second chance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejdobrkovic/extra/courses/2223datascience/(X3) black (dropout prediction)/(03) more ANL sources/anonymized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaQiang\Desktop\Project DS Analysis\DsAnalysisProject\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68628ECE-4E0E-D541-B85D-61E13B4A55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749FB83-A036-4DAC-9C00-A6C7D5460C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15820" xr2:uid="{F64B0A79-776E-9142-8DD9-9F07E332C707}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F64B0A79-776E-9142-8DD9-9F07E332C707}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Older</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1347,22 +1350,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="2.6640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="2.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1387,7 +1390,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>27</v>
@@ -1416,11 +1419,11 @@
       </c>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="12" t="s">
         <v>17</v>
@@ -1487,7 +1490,7 @@
       </c>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="15" t="s">
         <v>30</v>
@@ -1574,7 +1577,7 @@
       </c>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -1661,7 +1664,7 @@
       </c>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="18" t="s">
         <v>32</v>
@@ -1748,11 +1751,11 @@
       </c>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -1819,7 +1822,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="15" t="s">
         <v>30</v>
@@ -1906,7 +1909,7 @@
       </c>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="15" t="s">
         <v>31</v>
@@ -1993,7 +1996,7 @@
       </c>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="18" t="s">
         <v>32</v>
@@ -2080,15 +2083,15 @@
       </c>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="J16" s="6" t="s">
         <v>33</v>
@@ -2110,7 +2113,7 @@
       </c>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2135,7 +2138,7 @@
       <c r="W17" s="23"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2145,19 +2148,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384DFA3F-0679-6047-BDFC-D0AE5F21563E}">
   <dimension ref="A1:AT158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="4.1640625" customWidth="1"/>
+    <col min="4" max="43" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2295,7 +2298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2369630</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2460930</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2467283</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
         <v>#N/A</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="e">
         <v>#N/A</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2460367</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <v>#N/A</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2463439</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2483846</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2486240</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2461838</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <v>#N/A</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2466812</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2457955</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2369028</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2470406</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <v>#N/A</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2464574</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2395330</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <v>#N/A</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2448095</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2470463</v>
       </c>
@@ -5309,7 +5312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <v>#N/A</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <v>#N/A</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2474652</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2463394</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2469215</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2473919</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2459206</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <v>#N/A</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <v>#N/A</v>
       </c>
@@ -6542,7 +6545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2461897</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2441251</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <v>#N/A</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2397400</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <v>#N/A</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <v>#N/A</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2472752</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2448530</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2445567</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <v>#N/A</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2473484</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2473489</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2387856</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <v>#N/A</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2468164</v>
       </c>
@@ -8597,7 +8600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <v>#N/A</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2448118</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2477126</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2448317</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2457637</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2373597</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <v>#N/A</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <v>#N/A</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2460816</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2470025</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="e">
         <v>#N/A</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="e">
         <v>#N/A</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="e">
         <v>#N/A</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <v>#N/A</v>
       </c>
@@ -10515,7 +10518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2459209</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="e">
         <v>#N/A</v>
       </c>
@@ -10789,7 +10792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2441576</v>
       </c>
@@ -10926,7 +10929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2460467</v>
       </c>
@@ -11063,7 +11066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2446965</v>
       </c>
@@ -11200,7 +11203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2488564</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2471349</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2448525</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2488610</v>
       </c>
@@ -11748,7 +11751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2407419</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2471982</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <v>#N/A</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2475007</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="e">
         <v>#N/A</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="e">
         <v>#N/A</v>
       </c>
@@ -12570,7 +12573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="e">
         <v>#N/A</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2404288</v>
       </c>
@@ -12844,7 +12847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2468204</v>
       </c>
@@ -12981,7 +12984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2472834</v>
       </c>
@@ -13118,7 +13121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2482941</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2445750</v>
       </c>
@@ -13392,7 +13395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2475992</v>
       </c>
@@ -13529,7 +13532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2467819</v>
       </c>
@@ -13666,7 +13669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2461567</v>
       </c>
@@ -13803,7 +13806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2477562</v>
       </c>
@@ -13940,7 +13943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2471666</v>
       </c>
@@ -14077,7 +14080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2472458</v>
       </c>
@@ -14214,7 +14217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2486018</v>
       </c>
@@ -14351,7 +14354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2470724</v>
       </c>
@@ -14488,7 +14491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2482072</v>
       </c>
@@ -14625,7 +14628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" t="e">
         <v>#N/A</v>
       </c>
@@ -14762,7 +14765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2483548</v>
       </c>
@@ -14899,7 +14902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2422069</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2470423</v>
       </c>
@@ -15173,7 +15176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2478675</v>
       </c>
@@ -15310,7 +15313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2484150</v>
       </c>
@@ -15447,7 +15450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="e">
         <v>#N/A</v>
       </c>
@@ -15584,7 +15587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2473190</v>
       </c>
@@ -15721,7 +15724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2460524</v>
       </c>
@@ -15858,7 +15861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2476786</v>
       </c>
@@ -15995,7 +15998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2403829</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2486181</v>
       </c>
@@ -16269,7 +16272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2460979</v>
       </c>
@@ -16406,7 +16409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2460194</v>
       </c>
@@ -16543,7 +16546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2473590</v>
       </c>
@@ -16680,7 +16683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2468534</v>
       </c>
@@ -16817,7 +16820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2463162</v>
       </c>
@@ -16954,7 +16957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2467462</v>
       </c>
@@ -17091,7 +17094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2378940</v>
       </c>
@@ -17228,7 +17231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2462249</v>
       </c>
@@ -17365,7 +17368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <v>#N/A</v>
       </c>
@@ -17502,7 +17505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <v>#N/A</v>
       </c>
@@ -17639,7 +17642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2466089</v>
       </c>
@@ -17776,7 +17779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2484562</v>
       </c>
@@ -17913,7 +17916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2471383</v>
       </c>
@@ -18050,7 +18053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <v>#N/A</v>
       </c>
@@ -18187,7 +18190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" t="e">
         <v>#N/A</v>
       </c>
@@ -18324,7 +18327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2471245</v>
       </c>
@@ -18461,7 +18464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2472296</v>
       </c>
@@ -18598,7 +18601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" t="e">
         <v>#N/A</v>
       </c>
@@ -18735,7 +18738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2470058</v>
       </c>
@@ -18872,7 +18875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <v>#N/A</v>
       </c>
@@ -19009,7 +19012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" t="e">
         <v>#N/A</v>
       </c>
@@ -19146,7 +19149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" t="e">
         <v>#N/A</v>
       </c>
@@ -19283,7 +19286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" t="e">
         <v>#N/A</v>
       </c>
@@ -19420,7 +19423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2448032</v>
       </c>
@@ -19557,7 +19560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" t="e">
         <v>#N/A</v>
       </c>
@@ -19694,7 +19697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" t="e">
         <v>#N/A</v>
       </c>
@@ -19831,7 +19834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
         <v>#N/A</v>
       </c>
@@ -19968,7 +19971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <v>#N/A</v>
       </c>
@@ -20105,7 +20108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2467025</v>
       </c>
@@ -20242,7 +20245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2446057</v>
       </c>
@@ -20379,7 +20382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2460275</v>
       </c>
@@ -20516,7 +20519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2368055</v>
       </c>
@@ -20653,7 +20656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2471988</v>
       </c>
@@ -20790,7 +20793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2383406</v>
       </c>
@@ -20927,7 +20930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2460236</v>
       </c>
@@ -21064,7 +21067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2462671</v>
       </c>
@@ -21201,7 +21204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2575386</v>
       </c>
@@ -21338,7 +21341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" t="e">
         <v>#N/A</v>
       </c>
@@ -21475,7 +21478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2458180</v>
       </c>
@@ -21612,7 +21615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2448578</v>
       </c>
@@ -21749,7 +21752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2471344</v>
       </c>
@@ -21886,7 +21889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2488077</v>
       </c>
@@ -22023,7 +22026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2463987</v>
       </c>
@@ -22160,7 +22163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2468597</v>
       </c>
@@ -22297,7 +22300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2468369</v>
       </c>
@@ -22434,7 +22437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" t="e">
         <v>#N/A</v>
       </c>
@@ -22571,7 +22574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" t="e">
         <v>#N/A</v>
       </c>
@@ -22708,7 +22711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2375875</v>
       </c>
@@ -22845,7 +22848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2487380</v>
       </c>
@@ -22982,7 +22985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -23119,8 +23122,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:46" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C155" s="26" t="s">
         <v>35</v>
       </c>
@@ -23291,7 +23294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C156" s="31" t="s">
         <v>36</v>
       </c>
@@ -23464,7 +23467,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C157" s="34"/>
       <c r="D157" s="35">
         <v>1</v>
@@ -23595,7 +23598,7 @@
         <v>0.82894736842105265</v>
       </c>
     </row>
-    <row r="158" spans="1:46" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AT153" xr:uid="{C7E8DDBD-8772-904F-9221-3FA5C5D9A4A1}"/>
   <conditionalFormatting sqref="AS2">
@@ -23662,12 +23665,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="6.1640625" customWidth="1"/>
+    <col min="4" max="43" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23798,7 +23801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2369630</v>
       </c>
@@ -23926,7 +23929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2460930</v>
       </c>
@@ -24054,7 +24057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2467283</v>
       </c>
@@ -24182,7 +24185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
         <v>#N/A</v>
       </c>
@@ -24310,7 +24313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="e">
         <v>#N/A</v>
       </c>
@@ -24438,7 +24441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2460367</v>
       </c>
@@ -24566,7 +24569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <v>#N/A</v>
       </c>
@@ -24694,7 +24697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2463439</v>
       </c>
@@ -24822,7 +24825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2483846</v>
       </c>
@@ -24950,7 +24953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2486240</v>
       </c>
@@ -25078,7 +25081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2461838</v>
       </c>
@@ -25206,7 +25209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <v>#N/A</v>
       </c>
@@ -25334,7 +25337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2466812</v>
       </c>
@@ -25462,7 +25465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2457955</v>
       </c>
@@ -25590,7 +25593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2369028</v>
       </c>
@@ -25718,7 +25721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2470406</v>
       </c>
@@ -25846,7 +25849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <v>#N/A</v>
       </c>
@@ -25974,7 +25977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2464574</v>
       </c>
@@ -26102,7 +26105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2395330</v>
       </c>
@@ -26230,7 +26233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <v>#N/A</v>
       </c>
@@ -26358,7 +26361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2448095</v>
       </c>
@@ -26486,7 +26489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2470463</v>
       </c>
@@ -26614,7 +26617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <v>#N/A</v>
       </c>
@@ -26742,7 +26745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <v>#N/A</v>
       </c>
@@ -26870,7 +26873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2474652</v>
       </c>
@@ -26998,7 +27001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2463394</v>
       </c>
@@ -27126,7 +27129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2469215</v>
       </c>
@@ -27254,7 +27257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2473919</v>
       </c>
@@ -27382,7 +27385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2459206</v>
       </c>
@@ -27510,7 +27513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <v>#N/A</v>
       </c>
@@ -27638,7 +27641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <v>#N/A</v>
       </c>
@@ -27766,7 +27769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2461897</v>
       </c>
@@ -27894,7 +27897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2441251</v>
       </c>
@@ -28022,7 +28025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <v>#N/A</v>
       </c>
@@ -28150,7 +28153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2397400</v>
       </c>
@@ -28278,7 +28281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <v>#N/A</v>
       </c>
@@ -28406,7 +28409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <v>#N/A</v>
       </c>
@@ -28534,7 +28537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2472752</v>
       </c>
@@ -28662,7 +28665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2448530</v>
       </c>
@@ -28790,7 +28793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2445567</v>
       </c>
@@ -28918,7 +28921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <v>#N/A</v>
       </c>
@@ -29046,7 +29049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2473484</v>
       </c>
@@ -29174,7 +29177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2473489</v>
       </c>
@@ -29302,7 +29305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2387856</v>
       </c>
@@ -29430,7 +29433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <v>#N/A</v>
       </c>
@@ -29558,7 +29561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2468164</v>
       </c>
@@ -29686,7 +29689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <v>#N/A</v>
       </c>
@@ -29814,7 +29817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2448118</v>
       </c>
@@ -29942,7 +29945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2477126</v>
       </c>
@@ -30070,7 +30073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2448317</v>
       </c>
@@ -30198,7 +30201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2457637</v>
       </c>
@@ -30326,7 +30329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2373597</v>
       </c>
@@ -30454,7 +30457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <v>#N/A</v>
       </c>
@@ -30582,7 +30585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <v>#N/A</v>
       </c>
@@ -30710,7 +30713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2460816</v>
       </c>
@@ -30838,7 +30841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2470025</v>
       </c>
@@ -30966,7 +30969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" t="e">
         <v>#N/A</v>
       </c>
@@ -31094,7 +31097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" t="e">
         <v>#N/A</v>
       </c>
@@ -31222,7 +31225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" t="e">
         <v>#N/A</v>
       </c>
@@ -31350,7 +31353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <v>#N/A</v>
       </c>
@@ -31478,7 +31481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2459209</v>
       </c>
@@ -31606,7 +31609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" t="e">
         <v>#N/A</v>
       </c>
@@ -31734,7 +31737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2441576</v>
       </c>
@@ -31862,7 +31865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2460467</v>
       </c>
@@ -31990,7 +31993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2446965</v>
       </c>
@@ -32118,7 +32121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2488564</v>
       </c>
@@ -32246,7 +32249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2471349</v>
       </c>
@@ -32374,7 +32377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2448525</v>
       </c>
@@ -32502,7 +32505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2488610</v>
       </c>
@@ -32630,7 +32633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2407419</v>
       </c>
@@ -32758,7 +32761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2471982</v>
       </c>
@@ -32886,7 +32889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <v>#N/A</v>
       </c>
@@ -33014,7 +33017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2475007</v>
       </c>
@@ -33142,7 +33145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" t="e">
         <v>#N/A</v>
       </c>
@@ -33270,7 +33273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" t="e">
         <v>#N/A</v>
       </c>
@@ -33398,7 +33401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" t="e">
         <v>#N/A</v>
       </c>
@@ -33526,7 +33529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2404288</v>
       </c>
@@ -33654,7 +33657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2468204</v>
       </c>
@@ -33782,7 +33785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2472834</v>
       </c>
@@ -33910,7 +33913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2482941</v>
       </c>
@@ -34038,7 +34041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2445750</v>
       </c>
@@ -34166,7 +34169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2475992</v>
       </c>
@@ -34294,7 +34297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2467819</v>
       </c>
@@ -34422,7 +34425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2461567</v>
       </c>
@@ -34550,7 +34553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2477562</v>
       </c>
@@ -34678,7 +34681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2471666</v>
       </c>
@@ -34806,7 +34809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2472458</v>
       </c>
@@ -34934,7 +34937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2486018</v>
       </c>
@@ -35062,7 +35065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2470724</v>
       </c>
@@ -35190,7 +35193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2482072</v>
       </c>
@@ -35318,7 +35321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" t="e">
         <v>#N/A</v>
       </c>
@@ -35446,7 +35449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2483548</v>
       </c>
@@ -35574,7 +35577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2422069</v>
       </c>
@@ -35702,7 +35705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2470423</v>
       </c>
@@ -35830,7 +35833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2478675</v>
       </c>
@@ -35958,7 +35961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2484150</v>
       </c>
@@ -36086,7 +36089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98" t="e">
         <v>#N/A</v>
       </c>
@@ -36214,7 +36217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2473190</v>
       </c>
@@ -36342,7 +36345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2460524</v>
       </c>
@@ -36470,7 +36473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2476786</v>
       </c>
@@ -36598,7 +36601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2403829</v>
       </c>
@@ -36726,7 +36729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2486181</v>
       </c>
@@ -36854,7 +36857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2460979</v>
       </c>
@@ -36982,7 +36985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2460194</v>
       </c>
@@ -37110,7 +37113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2473590</v>
       </c>
@@ -37238,7 +37241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2468534</v>
       </c>
@@ -37366,7 +37369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2463162</v>
       </c>
@@ -37494,7 +37497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2467462</v>
       </c>
@@ -37622,7 +37625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2378940</v>
       </c>
@@ -37750,7 +37753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2462249</v>
       </c>
@@ -37878,7 +37881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <v>#N/A</v>
       </c>
@@ -38006,7 +38009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <v>#N/A</v>
       </c>
@@ -38134,7 +38137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2466089</v>
       </c>
@@ -38262,7 +38265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2484562</v>
       </c>
@@ -38390,7 +38393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2471383</v>
       </c>
@@ -38518,7 +38521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <v>#N/A</v>
       </c>
@@ -38646,7 +38649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118" t="e">
         <v>#N/A</v>
       </c>
@@ -38774,7 +38777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2471245</v>
       </c>
@@ -38902,7 +38905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2472296</v>
       </c>
@@ -39030,7 +39033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A121" t="e">
         <v>#N/A</v>
       </c>
@@ -39158,7 +39161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2470058</v>
       </c>
@@ -39286,7 +39289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <v>#N/A</v>
       </c>
@@ -39414,7 +39417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A124" t="e">
         <v>#N/A</v>
       </c>
@@ -39542,7 +39545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A125" t="e">
         <v>#N/A</v>
       </c>
@@ -39670,7 +39673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A126" t="e">
         <v>#N/A</v>
       </c>
@@ -39798,7 +39801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2448032</v>
       </c>
@@ -39926,7 +39929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A128" t="e">
         <v>#N/A</v>
       </c>
@@ -40054,7 +40057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A129" t="e">
         <v>#N/A</v>
       </c>
@@ -40182,7 +40185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
         <v>#N/A</v>
       </c>
@@ -40310,7 +40313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <v>#N/A</v>
       </c>
@@ -40438,7 +40441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2467025</v>
       </c>
@@ -40566,7 +40569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2446057</v>
       </c>
@@ -40694,7 +40697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2460275</v>
       </c>
@@ -40822,7 +40825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2368055</v>
       </c>
@@ -40950,7 +40953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2471988</v>
       </c>
@@ -41078,7 +41081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2383406</v>
       </c>
@@ -41206,7 +41209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2460236</v>
       </c>
@@ -41334,7 +41337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2462671</v>
       </c>
@@ -41462,7 +41465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2575386</v>
       </c>
@@ -41590,7 +41593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A141" t="e">
         <v>#N/A</v>
       </c>
@@ -41718,7 +41721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2458180</v>
       </c>
@@ -41846,7 +41849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2448578</v>
       </c>
@@ -41974,7 +41977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2471344</v>
       </c>
@@ -42102,7 +42105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2488077</v>
       </c>
@@ -42230,7 +42233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2463987</v>
       </c>
@@ -42358,7 +42361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2468597</v>
       </c>
@@ -42486,7 +42489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2468369</v>
       </c>
@@ -42614,7 +42617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A149" t="e">
         <v>#N/A</v>
       </c>
@@ -42742,7 +42745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150" t="e">
         <v>#N/A</v>
       </c>
@@ -42870,7 +42873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2375875</v>
       </c>
@@ -42998,7 +43001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2487380</v>
       </c>
@@ -43126,7 +43129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="e">
         <v>#N/A</v>
       </c>
@@ -43255,8 +43258,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C155" s="40" t="s">
         <v>17</v>
       </c>
@@ -43381,7 +43384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C156" s="43" t="s">
         <v>37</v>
       </c>
@@ -43506,7 +43509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C157" s="46" t="s">
         <v>5</v>
       </c>
@@ -43671,7 +43674,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C158" s="49" t="s">
         <v>3</v>
       </c>
@@ -43836,7 +43839,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C159" s="49" t="s">
         <v>6</v>
       </c>
@@ -44001,7 +44004,7 @@
         <v>3.9473684210526314E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C160" s="52" t="s">
         <v>4</v>
       </c>
@@ -44166,7 +44169,7 @@
         <v>0.28947368421052633</v>
       </c>
     </row>
-    <row r="161" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44180,13 +44183,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="3" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>39</v>
       </c>
@@ -44206,7 +44209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>9</v>
       </c>
@@ -44228,7 +44231,7 @@
         <v>0.17045454545454544</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>42</v>
       </c>
@@ -44246,7 +44249,7 @@
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -44262,7 +44265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>3</v>
       </c>
@@ -44280,7 +44283,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
@@ -44298,7 +44301,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>4</v>
       </c>
@@ -44316,7 +44319,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
@@ -44334,7 +44337,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
@@ -44352,7 +44355,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>7</v>
       </c>
@@ -44368,7 +44371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>15</v>
       </c>
@@ -44386,7 +44389,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>12</v>
       </c>
@@ -44402,7 +44405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>13</v>
       </c>
@@ -44420,7 +44423,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44434,9 +44437,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -44444,7 +44447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -44452,7 +44455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -44460,7 +44463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -44468,7 +44471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -44476,7 +44479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -44484,7 +44487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -44492,7 +44495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -44500,7 +44503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -44508,7 +44511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -44516,7 +44519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44524,7 +44527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -44532,7 +44535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -44540,7 +44543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -44548,7 +44551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -44556,7 +44559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44564,7 +44567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -44572,7 +44575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -44580,7 +44583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -44588,7 +44591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -44596,7 +44599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -44604,7 +44607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -44612,7 +44615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -44620,7 +44623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -44628,7 +44631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -44636,7 +44639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -44644,7 +44647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -44652,7 +44655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -44660,7 +44663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -44668,7 +44671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -44676,7 +44679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -44684,7 +44687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -44692,7 +44695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -44700,7 +44703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -44708,7 +44711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -44716,7 +44719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -44724,7 +44727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -44732,7 +44735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -44740,7 +44743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -44748,7 +44751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -44756,7 +44759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
